--- a/rapprochement.xlsx
+++ b/rapprochement.xlsx
@@ -413,261 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Montant billets</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Montant facture</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Différence</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NTS ALGER</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5830773.390000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5809302.39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21471.00000000093</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HB AVENTURA TOURISME ET VOYAGE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>788372</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-788372</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>KSAR TITTAF</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>741212.8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>756532.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-15320</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SARL RSV</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>686523.75</v>
-      </c>
-      <c r="C5" t="n">
-        <v>688369.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1845.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PLAISANCE VOYAGE BONE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>684690.23</v>
-      </c>
-      <c r="C6" t="n">
-        <v>564243.23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120447</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MILLESIME VOYAGES</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>428152.59</v>
-      </c>
-      <c r="C7" t="n">
-        <v>469818.34</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-41665.75000000006</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TIMO MB TRAVEL</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>220623.62</v>
-      </c>
-      <c r="C8" t="n">
-        <v>375220.33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-154596.71</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>STORY VOYAGE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>211439.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>257439.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-46000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TIFAWT</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>108666</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100498.6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8167.399999999994</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AL LOJA TOUR</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>48833</v>
-      </c>
-      <c r="C11" t="n">
-        <v>58397.45</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-9564.449999999997</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ALGEBRATEC</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>62381.05</v>
-      </c>
-      <c r="C12" t="n">
-        <v>43581.05</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18800</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>COMPAGNIE AERIENNE DIRECTE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-711488</v>
-      </c>
-      <c r="D13" t="n">
-        <v>711488</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1234</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-1234</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TIDIS VOYAGES</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-19300</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-19300</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>